--- a/data/medopract.xlsx
+++ b/data/medopract.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6C7E31D3-5540-409B-A6E2-429AFDF4BD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vashw\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC384D3-D110-4DFC-AB84-503F4D3FA90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="946" firstSheet="3" activeTab="5" xr2:uid="{353D8E78-9239-4AE5-8202-B2B3F52D29FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="946" firstSheet="5" activeTab="5" xr2:uid="{353D8E78-9239-4AE5-8202-B2B3F52D29FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Patient" sheetId="1" r:id="rId1"/>
@@ -21,8 +26,7 @@
     <sheet name="Registration Page" sheetId="10" r:id="rId11"/>
     <sheet name="Reports" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:H17"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="126">
   <si>
     <t>Ashwin</t>
   </si>
@@ -88,9 +92,6 @@
     <t>Gastric</t>
   </si>
   <si>
-    <t>12345@@2</t>
-  </si>
-  <si>
     <t>Operation</t>
   </si>
   <si>
@@ -109,9 +110,6 @@
     <t>Throat Infection</t>
   </si>
   <si>
-    <t>"9597277526"</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -346,6 +344,9 @@
     <t>Eating sweets</t>
   </si>
   <si>
+    <t>aaaaaa</t>
+  </si>
+  <si>
     <t>AddPrescription_Email_Id</t>
   </si>
   <si>
@@ -416,6 +417,12 @@
   </si>
   <si>
     <t>2000</t>
+  </si>
+  <si>
+    <t>Login_UserName3</t>
+  </si>
+  <si>
+    <t>Login_Password3</t>
   </si>
 </sst>
 </file>
@@ -852,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDF8430-9907-4C03-B626-5A1D0794E287}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -873,10 +880,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="2"/>
@@ -893,7 +900,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -913,7 +920,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -933,10 +940,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="1"/>
@@ -953,10 +960,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="1"/>
@@ -973,10 +980,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="1"/>
@@ -993,10 +1000,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="1"/>
@@ -1013,10 +1020,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="1"/>
@@ -1033,7 +1040,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -1053,7 +1060,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -1073,10 +1080,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="1"/>
@@ -1093,10 +1100,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="1"/>
@@ -1113,7 +1120,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -1121,7 +1128,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
@@ -1129,7 +1136,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
@@ -1137,18 +1144,18 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1178,10 +1185,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1197,7 +1204,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1216,7 +1223,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -1235,10 +1242,10 @@
     </row>
     <row r="4" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1254,10 +1261,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1273,10 +1280,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1292,10 +1299,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1311,10 +1318,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1330,10 +1337,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1349,10 +1356,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1368,10 +1375,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1387,10 +1394,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1406,7 +1413,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -1509,10 +1516,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1522,10 +1529,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="7"/>
@@ -1535,7 +1542,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -1548,10 +1555,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1561,10 +1568,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1574,10 +1581,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1587,10 +1594,10 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1815,7 +1822,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1832,10 +1839,10 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1857,7 +1864,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1882,7 +1889,7 @@
     </row>
     <row r="3" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -1907,10 +1914,10 @@
     </row>
     <row r="4" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1932,10 +1939,10 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1957,10 +1964,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1982,10 +1989,10 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2007,10 +2014,10 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2032,10 +2039,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2057,10 +2064,10 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2082,10 +2089,10 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2301,10 +2308,10 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2324,7 +2331,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2347,7 +2354,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -2370,7 +2377,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -2393,10 +2400,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2416,7 +2423,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -2439,10 +2446,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2462,7 +2469,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -2485,10 +2492,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2508,10 +2515,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2703,10 +2710,10 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2726,7 +2733,7 @@
     </row>
     <row r="2" spans="1:17" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -3023,7 +3030,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3038,10 +3045,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3060,10 +3067,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3082,7 +3089,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -3104,7 +3111,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -3126,7 +3133,7 @@
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -3148,7 +3155,7 @@
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -3170,10 +3177,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3192,10 +3199,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -3402,7 +3409,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3415,17 +3422,17 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -3435,42 +3442,46 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3523,20 +3534,20 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3611,10 +3622,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3628,7 +3639,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -3835,7 +3846,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3850,10 +3861,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3866,7 +3877,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -3882,10 +3893,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3898,10 +3909,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3914,10 +3925,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3930,10 +3941,10 @@
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
